--- a/StructureDefinition-cbs-observation-lab.xlsx
+++ b/StructureDefinition-cbs-observation-lab.xlsx
@@ -1484,6 +1484,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
+    &lt;system value="http://phinvads.cdc.gov/fhir/CodeSystem/2.16.840.1.114222.4.5.232"/&gt;
     &lt;code value="STD123"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1511,6 +1512,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
+    &lt;system value="http://phinvads.cdc.gov/fhir/CodeSystem/2.16.840.1.114222.4.5.232"/&gt;
     &lt;code value="LAB278"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
